--- a/publipostage/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
+++ b/publipostage/05c1qsg97/liste_essais_cliniques_identifies_05c1qsg97.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -521,6 +526,11 @@
       </c>
       <c r="J2" t="b">
         <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -556,6 +566,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +609,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -632,6 +652,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -670,6 +695,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -708,6 +738,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -746,6 +781,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -784,6 +824,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -822,6 +867,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -860,6 +910,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -902,6 +957,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -944,6 +1004,11 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -982,6 +1047,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1020,6 +1090,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1058,6 +1133,11 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1096,6 +1176,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1134,6 +1219,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1172,6 +1262,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1210,6 +1305,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1248,6 +1348,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1286,6 +1391,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1324,6 +1434,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1366,6 +1481,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1408,6 +1528,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1450,6 +1575,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1488,6 +1618,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1526,6 +1661,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1568,6 +1708,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1610,6 +1755,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1652,6 +1802,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1694,6 +1849,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1740,6 +1900,11 @@
       <c r="J33" t="b">
         <v>1</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1782,6 +1947,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1824,6 +1994,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1862,6 +2037,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1904,6 +2084,11 @@
       <c r="J37" t="b">
         <v>1</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1946,6 +2131,11 @@
       <c r="J38" t="b">
         <v>1</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1988,6 +2178,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2030,6 +2225,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2068,6 +2268,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2106,6 +2311,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2152,6 +2362,11 @@
       <c r="J43" t="b">
         <v>1</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2194,6 +2409,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2236,6 +2456,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2274,6 +2499,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2316,6 +2546,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2358,6 +2593,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2400,6 +2640,11 @@
       <c r="J49" t="b">
         <v>1</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2442,6 +2687,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2484,6 +2734,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2526,6 +2781,11 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2568,6 +2828,11 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2610,6 +2875,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2652,6 +2922,11 @@
       <c r="J55" t="b">
         <v>1</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2694,6 +2969,11 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2736,6 +3016,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2774,6 +3059,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2812,6 +3102,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2854,6 +3149,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2896,6 +3196,11 @@
       <c r="J61" t="b">
         <v>1</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2942,6 +3247,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2984,6 +3294,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3022,6 +3337,11 @@
       <c r="J64" t="b">
         <v>0</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3068,6 +3388,11 @@
       <c r="J65" t="b">
         <v>1</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3110,6 +3435,11 @@
       <c r="J66" t="b">
         <v>0</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3152,6 +3482,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3194,6 +3529,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3236,6 +3576,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3278,6 +3623,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3320,6 +3670,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3362,6 +3717,11 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3404,6 +3764,11 @@
       <c r="J73" t="b">
         <v>0</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3442,6 +3807,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3484,6 +3854,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3530,6 +3905,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3572,6 +3952,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3614,6 +3999,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3656,6 +4046,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3698,6 +4093,11 @@
       <c r="J80" t="b">
         <v>1</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3740,6 +4140,11 @@
       <c r="J81" t="b">
         <v>1</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3778,6 +4183,11 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3820,6 +4230,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3862,6 +4277,11 @@
       <c r="J84" t="b">
         <v>1</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3904,6 +4324,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3946,6 +4371,11 @@
       <c r="J86" t="b">
         <v>0</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3984,6 +4414,11 @@
       <c r="J87" t="b">
         <v>0</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4026,6 +4461,11 @@
       <c r="J88" t="b">
         <v>1</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4068,6 +4508,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4110,6 +4555,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4152,6 +4602,11 @@
       <c r="J91" t="b">
         <v>1</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4194,6 +4649,11 @@
       <c r="J92" t="b">
         <v>1</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4236,6 +4696,11 @@
       <c r="J93" t="b">
         <v>1</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4278,6 +4743,11 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4320,6 +4790,11 @@
       <c r="J95" t="b">
         <v>1</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4362,6 +4837,11 @@
       <c r="J96" t="b">
         <v>1</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4404,6 +4884,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4446,6 +4931,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4488,6 +4978,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4526,6 +5021,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4564,6 +5064,11 @@
       <c r="J101" t="b">
         <v>1</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4606,6 +5111,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4648,6 +5158,11 @@
       <c r="J103" t="b">
         <v>1</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4690,6 +5205,11 @@
       <c r="J104" t="b">
         <v>1</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4732,6 +5252,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4774,6 +5299,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4816,6 +5346,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4858,6 +5393,11 @@
       <c r="J108" t="b">
         <v>1</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4900,6 +5440,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4942,6 +5487,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4984,6 +5534,11 @@
       <c r="J111" t="b">
         <v>0</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5030,6 +5585,11 @@
       <c r="J112" t="b">
         <v>1</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5072,6 +5632,11 @@
       <c r="J113" t="b">
         <v>1</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5114,6 +5679,11 @@
       <c r="J114" t="b">
         <v>1</v>
       </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5156,6 +5726,11 @@
       <c r="J115" t="b">
         <v>1</v>
       </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5198,6 +5773,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5240,6 +5820,11 @@
       <c r="J117" t="b">
         <v>0</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5282,6 +5867,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5328,6 +5918,11 @@
       <c r="J119" t="b">
         <v>1</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5370,6 +5965,11 @@
       <c r="J120" t="b">
         <v>1</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5412,6 +6012,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5454,6 +6059,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5496,6 +6106,11 @@
       <c r="J123" t="b">
         <v>1</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5542,6 +6157,11 @@
       <c r="J124" t="b">
         <v>1</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5584,6 +6204,11 @@
       <c r="J125" t="b">
         <v>1</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5626,6 +6251,11 @@
       <c r="J126" t="b">
         <v>1</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5668,6 +6298,11 @@
       <c r="J127" t="b">
         <v>0</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5710,6 +6345,11 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5752,6 +6392,11 @@
       <c r="J129" t="b">
         <v>1</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5798,6 +6443,11 @@
       <c r="J130" t="b">
         <v>1</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5840,6 +6490,11 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5878,6 +6533,11 @@
       <c r="J132" t="b">
         <v>0</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5916,6 +6576,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5954,6 +6619,11 @@
       <c r="J134" t="b">
         <v>0</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6000,6 +6670,11 @@
       <c r="J135" t="b">
         <v>1</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6042,6 +6717,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6084,6 +6764,11 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6126,6 +6811,11 @@
       <c r="J138" t="b">
         <v>0</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6168,6 +6858,7 @@
       <c r="J139" t="b">
         <v>0</v>
       </c>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6210,6 +6901,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6252,6 +6948,11 @@
       <c r="J141" t="b">
         <v>0</v>
       </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -6294,6 +6995,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6336,6 +7042,11 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6378,6 +7089,11 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6424,6 +7140,11 @@
       <c r="J145" t="b">
         <v>1</v>
       </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6466,6 +7187,11 @@
       <c r="J146" t="b">
         <v>1</v>
       </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6508,6 +7234,11 @@
       <c r="J147" t="b">
         <v>1</v>
       </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6554,6 +7285,11 @@
       <c r="J148" t="b">
         <v>1</v>
       </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6596,6 +7332,11 @@
       <c r="J149" t="b">
         <v>1</v>
       </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6638,6 +7379,11 @@
       <c r="J150" t="b">
         <v>0</v>
       </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6680,6 +7426,11 @@
       <c r="J151" t="b">
         <v>1</v>
       </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6722,6 +7473,11 @@
       <c r="J152" t="b">
         <v>0</v>
       </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6764,6 +7520,11 @@
       <c r="J153" t="b">
         <v>1</v>
       </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6806,6 +7567,11 @@
       <c r="J154" t="b">
         <v>1</v>
       </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6848,6 +7614,11 @@
       <c r="J155" t="b">
         <v>0</v>
       </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6890,6 +7661,11 @@
       <c r="J156" t="b">
         <v>0</v>
       </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6928,6 +7704,11 @@
       <c r="J157" t="b">
         <v>0</v>
       </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6970,6 +7751,11 @@
       <c r="J158" t="b">
         <v>0</v>
       </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7012,6 +7798,11 @@
       <c r="J159" t="b">
         <v>0</v>
       </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7058,6 +7849,11 @@
       <c r="J160" t="b">
         <v>1</v>
       </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -7100,6 +7896,11 @@
       <c r="J161" t="b">
         <v>0</v>
       </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -7142,6 +7943,11 @@
       <c r="J162" t="b">
         <v>0</v>
       </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -7184,6 +7990,7 @@
       <c r="J163" t="b">
         <v>0</v>
       </c>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -7226,6 +8033,11 @@
       <c r="J164" t="b">
         <v>1</v>
       </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7268,6 +8080,11 @@
       <c r="J165" t="b">
         <v>0</v>
       </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -7310,6 +8127,11 @@
       <c r="J166" t="b">
         <v>0</v>
       </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -7352,6 +8174,11 @@
       <c r="J167" t="b">
         <v>0</v>
       </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -7394,6 +8221,11 @@
       <c r="J168" t="b">
         <v>0</v>
       </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7436,6 +8268,11 @@
       <c r="J169" t="b">
         <v>0</v>
       </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7478,6 +8315,11 @@
       <c r="J170" t="b">
         <v>1</v>
       </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7520,6 +8362,11 @@
       <c r="J171" t="b">
         <v>0</v>
       </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7558,6 +8405,11 @@
       <c r="J172" t="b">
         <v>0</v>
       </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7600,6 +8452,11 @@
       <c r="J173" t="b">
         <v>0</v>
       </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7642,6 +8499,11 @@
       <c r="J174" t="b">
         <v>1</v>
       </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7684,6 +8546,11 @@
       <c r="J175" t="b">
         <v>0</v>
       </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7722,6 +8589,11 @@
       <c r="J176" t="b">
         <v>0</v>
       </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7764,6 +8636,11 @@
       <c r="J177" t="b">
         <v>1</v>
       </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7806,6 +8683,11 @@
       <c r="J178" t="b">
         <v>0</v>
       </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7848,6 +8730,11 @@
       <c r="J179" t="b">
         <v>0</v>
       </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7890,6 +8777,11 @@
       <c r="J180" t="b">
         <v>0</v>
       </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7932,6 +8824,11 @@
       <c r="J181" t="b">
         <v>0</v>
       </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7974,6 +8871,11 @@
       <c r="J182" t="b">
         <v>0</v>
       </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8016,6 +8918,11 @@
       <c r="J183" t="b">
         <v>0</v>
       </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -8058,6 +8965,11 @@
       <c r="J184" t="b">
         <v>0</v>
       </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -8100,6 +9012,11 @@
       <c r="J185" t="b">
         <v>0</v>
       </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8142,6 +9059,11 @@
       <c r="J186" t="b">
         <v>0</v>
       </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -8184,6 +9106,11 @@
       <c r="J187" t="b">
         <v>1</v>
       </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -8226,6 +9153,11 @@
       <c r="J188" t="b">
         <v>1</v>
       </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -8268,6 +9200,11 @@
       <c r="J189" t="b">
         <v>0</v>
       </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -8310,6 +9247,11 @@
       <c r="J190" t="b">
         <v>0</v>
       </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -8352,6 +9294,11 @@
       <c r="J191" t="b">
         <v>0</v>
       </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -8395,6 +9342,7 @@
       <c r="J192" t="b">
         <v>0</v>
       </c>
+      <c r="K192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -8437,6 +9385,7 @@
       <c r="J193" t="b">
         <v>0</v>
       </c>
+      <c r="K193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8479,6 +9428,11 @@
       <c r="J194" t="b">
         <v>0</v>
       </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8521,6 +9475,11 @@
       <c r="J195" t="b">
         <v>0</v>
       </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8563,6 +9522,11 @@
       <c r="J196" t="b">
         <v>0</v>
       </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8605,6 +9569,11 @@
       <c r="J197" t="b">
         <v>0</v>
       </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8647,6 +9616,11 @@
       <c r="J198" t="b">
         <v>0</v>
       </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8689,6 +9663,11 @@
       <c r="J199" t="b">
         <v>0</v>
       </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8731,6 +9710,11 @@
       <c r="J200" t="b">
         <v>0</v>
       </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8773,6 +9757,11 @@
       <c r="J201" t="b">
         <v>0</v>
       </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -8815,6 +9804,11 @@
       <c r="J202" t="b">
         <v>0</v>
       </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8858,6 +9852,7 @@
       <c r="J203" t="b">
         <v>0</v>
       </c>
+      <c r="K203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8892,6 +9887,11 @@
       <c r="J204" t="b">
         <v>0</v>
       </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8926,6 +9926,11 @@
       <c r="J205" t="b">
         <v>0</v>
       </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8960,6 +9965,11 @@
       <c r="J206" t="b">
         <v>1</v>
       </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8998,6 +10008,11 @@
       <c r="J207" t="b">
         <v>1</v>
       </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -9036,6 +10051,7 @@
       <c r="J208" t="b">
         <v>0</v>
       </c>
+      <c r="K208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
